--- a/iFood.xlsx
+++ b/iFood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\Insper\Semestre 2\Ciencia de dados\P1\ciencia-dos-dados-p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7A2CB-E2F8-493A-A4C4-3BFA0D695AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67D65B-5B4C-4F11-9505-96E9D515DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1753,7 +1753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1770,8 +1770,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2113,20 +2119,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>502</v>
       </c>
     </row>
@@ -2134,7 +2141,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2142,7 +2149,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2157,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2158,7 +2165,7 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2166,7 +2173,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2174,7 +2181,7 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2182,7 +2189,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2190,7 +2197,7 @@
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2198,7 +2205,7 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2206,7 +2213,7 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2214,7 +2221,7 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2222,7 +2229,7 @@
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2230,7 +2237,7 @@
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2238,7 +2245,7 @@
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2246,7 +2253,7 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2254,7 +2261,7 @@
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2262,7 +2269,7 @@
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2270,7 +2277,7 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2278,7 +2285,7 @@
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2286,7 +2293,7 @@
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2294,7 +2301,7 @@
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2302,7 +2309,7 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2310,7 +2317,7 @@
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2318,7 +2325,7 @@
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2326,7 +2333,7 @@
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2334,7 +2341,7 @@
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2342,7 +2349,7 @@
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2350,7 +2357,7 @@
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2358,7 +2365,7 @@
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2366,7 +2373,7 @@
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2374,7 +2381,7 @@
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2382,7 +2389,7 @@
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2390,7 +2397,7 @@
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2398,7 +2405,7 @@
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2406,7 +2413,7 @@
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2414,7 +2421,7 @@
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2422,7 +2429,7 @@
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2430,7 +2437,7 @@
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2438,7 +2445,7 @@
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2446,7 +2453,7 @@
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2454,7 +2461,7 @@
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2469,7 @@
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2470,7 +2477,7 @@
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2478,7 +2485,7 @@
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2486,7 +2493,7 @@
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2494,7 +2501,7 @@
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2502,7 +2509,7 @@
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2510,7 +2517,7 @@
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2518,7 +2525,7 @@
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2526,7 +2533,7 @@
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2534,7 +2541,7 @@
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2542,7 +2549,7 @@
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2550,7 +2557,7 @@
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2558,7 +2565,7 @@
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2566,7 +2573,7 @@
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2574,7 +2581,7 @@
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2582,7 +2589,7 @@
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2590,7 +2597,7 @@
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2598,7 +2605,7 @@
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2606,7 +2613,7 @@
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2614,7 +2621,7 @@
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2622,7 +2629,7 @@
       <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2630,7 +2637,7 @@
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2638,7 +2645,7 @@
       <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2646,7 +2653,7 @@
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2654,7 +2661,7 @@
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2662,7 +2669,7 @@
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2677,7 @@
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2678,7 +2685,7 @@
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2686,7 +2693,7 @@
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2694,7 +2701,7 @@
       <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2702,7 +2709,7 @@
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2710,7 +2717,7 @@
       <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2718,7 +2725,7 @@
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2726,7 +2733,7 @@
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2734,7 +2741,7 @@
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2742,7 +2749,7 @@
       <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2750,7 +2757,7 @@
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2758,7 +2765,7 @@
       <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2766,7 +2773,7 @@
       <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2774,7 +2781,7 @@
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2782,7 +2789,7 @@
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2790,7 +2797,7 @@
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2798,7 +2805,7 @@
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2806,7 +2813,7 @@
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2814,7 +2821,7 @@
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2822,7 +2829,7 @@
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2830,7 +2837,7 @@
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2838,7 +2845,7 @@
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2846,7 +2853,7 @@
       <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2854,7 +2861,7 @@
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2862,7 +2869,7 @@
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2870,7 +2877,7 @@
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2878,7 +2885,7 @@
       <c r="A95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2886,7 +2893,7 @@
       <c r="A96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2894,7 +2901,7 @@
       <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2902,7 +2909,7 @@
       <c r="A98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2910,7 +2917,7 @@
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2918,7 +2925,7 @@
       <c r="A100" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2926,1007 +2933,1421 @@
       <c r="A101" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="6"/>
+      <c r="B101" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="B102" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="B103" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="B104" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="B105" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="B106" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="B107" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="B108" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="B109" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="B110" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="B111" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B118" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B120" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B125" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B126" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B127" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B130" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B139" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B141" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B142" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B143" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B144" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B146" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B147" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B152" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B154" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B156" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B160" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B161" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B163" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B164" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B166" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B167" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B170" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B171" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B172" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B173" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B174" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B175" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B176" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B177" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B178" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B179" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B181" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B184" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B185" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B186" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B187" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B188" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B191" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B193" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B194" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B195" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B196" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B199" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B201" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B202" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B203" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B204" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B205" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B206" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B207" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B208" s="6"/>
+    </row>
+    <row r="209" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B209" s="6"/>
+    </row>
+    <row r="210" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="6"/>
+    </row>
+    <row r="211" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="6"/>
+    </row>
+    <row r="212" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="6"/>
+    </row>
+    <row r="213" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B213" s="6"/>
+    </row>
+    <row r="214" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B214" s="6"/>
+    </row>
+    <row r="215" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="6"/>
+    </row>
+    <row r="216" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B216" s="6"/>
+    </row>
+    <row r="217" spans="1:2" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B217" s="6"/>
+    </row>
+    <row r="218" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B218" s="6"/>
+    </row>
+    <row r="219" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B219" s="6"/>
+    </row>
+    <row r="220" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B220" s="6"/>
+    </row>
+    <row r="221" spans="1:2" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="6"/>
+    </row>
+    <row r="222" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B222" s="6"/>
+    </row>
+    <row r="223" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B223" s="6"/>
+    </row>
+    <row r="224" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="6"/>
+    </row>
+    <row r="225" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B225" s="6"/>
+    </row>
+    <row r="226" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B226" s="6"/>
+    </row>
+    <row r="227" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="6"/>
+    </row>
+    <row r="228" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B228" s="6"/>
+    </row>
+    <row r="229" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="6"/>
+    </row>
+    <row r="230" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="6"/>
+    </row>
+    <row r="231" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="6"/>
+    </row>
+    <row r="232" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B232" s="6"/>
+    </row>
+    <row r="233" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="6"/>
+    </row>
+    <row r="234" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B234" s="6"/>
+    </row>
+    <row r="235" spans="1:2" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B235" s="6"/>
+    </row>
+    <row r="236" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B236" s="6"/>
+    </row>
+    <row r="237" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B237" s="6"/>
+    </row>
+    <row r="238" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="6"/>
+    </row>
+    <row r="239" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B239" s="6"/>
+    </row>
+    <row r="240" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B240" s="6"/>
+    </row>
+    <row r="241" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B241" s="6"/>
+    </row>
+    <row r="242" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B242" s="6"/>
+    </row>
+    <row r="243" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B243" s="6"/>
+    </row>
+    <row r="244" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="6"/>
+    </row>
+    <row r="245" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B245" s="6"/>
+    </row>
+    <row r="246" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B246" s="6"/>
+    </row>
+    <row r="247" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="6"/>
+    </row>
+    <row r="248" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B248" s="6"/>
+    </row>
+    <row r="249" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="6"/>
+    </row>
+    <row r="250" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="6"/>
+    </row>
+    <row r="251" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="6"/>
+    </row>
+    <row r="252" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="6"/>
+    </row>
+    <row r="253" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="6"/>
+    </row>
+    <row r="254" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B254" s="6"/>
+    </row>
+    <row r="255" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B255" s="6"/>
+    </row>
+    <row r="256" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="6"/>
+    </row>
+    <row r="257" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="6"/>
+    </row>
+    <row r="258" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B258" s="6"/>
+    </row>
+    <row r="259" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="6"/>
+    </row>
+    <row r="260" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="6"/>
+    </row>
+    <row r="261" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="6"/>
+    </row>
+    <row r="262" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B262" s="6"/>
+    </row>
+    <row r="263" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B263" s="6"/>
+    </row>
+    <row r="264" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B264" s="6"/>
+    </row>
+    <row r="265" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="6"/>
+    </row>
+    <row r="266" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B266" s="6"/>
+    </row>
+    <row r="267" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B267" s="6"/>
+    </row>
+    <row r="268" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="6"/>
+    </row>
+    <row r="269" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B269" s="6"/>
+    </row>
+    <row r="270" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="6"/>
+    </row>
+    <row r="271" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B271" s="6"/>
+    </row>
+    <row r="272" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B272" s="6"/>
+    </row>
+    <row r="273" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B273" s="6"/>
+    </row>
+    <row r="274" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="6"/>
+    </row>
+    <row r="275" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="6"/>
+    </row>
+    <row r="276" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B276" s="6"/>
+    </row>
+    <row r="277" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B277" s="6"/>
+    </row>
+    <row r="278" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="6"/>
+    </row>
+    <row r="279" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B279" s="6"/>
+    </row>
+    <row r="280" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="6"/>
+    </row>
+    <row r="281" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B281" s="6"/>
+    </row>
+    <row r="282" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B282" s="6"/>
+    </row>
+    <row r="283" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B283" s="6"/>
+    </row>
+    <row r="284" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B284" s="6"/>
+    </row>
+    <row r="285" spans="1:2" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B285" s="6"/>
+    </row>
+    <row r="286" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B286" s="6"/>
+    </row>
+    <row r="287" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B287" s="6"/>
+    </row>
+    <row r="288" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="6"/>
+    </row>
+    <row r="289" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="6"/>
+    </row>
+    <row r="290" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B290" s="6"/>
+    </row>
+    <row r="291" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B291" s="6"/>
+    </row>
+    <row r="292" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B292" s="6"/>
+    </row>
+    <row r="293" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B293" s="6"/>
+    </row>
+    <row r="294" spans="1:2" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="6"/>
+    </row>
+    <row r="295" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="6"/>
+    </row>
+    <row r="296" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B296" s="6"/>
+    </row>
+    <row r="297" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="6"/>
+    </row>
+    <row r="298" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B298" s="6"/>
+    </row>
+    <row r="299" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="6"/>
+    </row>
+    <row r="300" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="6"/>
+    </row>
+    <row r="301" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>300</v>
       </c>
+      <c r="B301" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iFood.xlsx
+++ b/iFood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\Insper\Semestre 2\Ciencia de dados\P1\ciencia-dos-dados-p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67D65B-5B4C-4F11-9505-96E9D515DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45424830-9ABA-4F05-BB0A-988B4E07D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2119,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3789,565 +3789,753 @@
       <c r="A208" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="6"/>
+      <c r="B208" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="6"/>
+      <c r="B209" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="6"/>
+      <c r="B210" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="6"/>
+      <c r="B211" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="6"/>
+      <c r="B212" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="6"/>
+      <c r="B213" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="6"/>
+      <c r="B214" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="6"/>
+      <c r="B215" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="216" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="6"/>
+      <c r="B216" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:2" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="6"/>
+      <c r="B217" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="6"/>
+      <c r="B218" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="6"/>
+      <c r="B219" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="6"/>
+      <c r="B220" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:2" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="6"/>
+      <c r="B221" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="6"/>
+      <c r="B222" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="6"/>
+      <c r="B223" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="6"/>
+      <c r="B224" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="6"/>
+      <c r="B225" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="6"/>
+      <c r="B226" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="6"/>
+      <c r="B227" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="228" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="6"/>
+      <c r="B228" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="6"/>
+      <c r="B229" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="6"/>
+      <c r="B230" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="6"/>
+      <c r="B231" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="6"/>
+      <c r="B232" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="6"/>
+      <c r="B233" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="6"/>
+      <c r="B234" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:2" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="6"/>
+      <c r="B235" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="6"/>
+      <c r="B236" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="6"/>
+      <c r="B237" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="6"/>
+      <c r="B238" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="6"/>
+      <c r="B239" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B240" s="6"/>
+      <c r="B240" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B241" s="6"/>
+      <c r="B241" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B242" s="6"/>
+      <c r="B242" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="243" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B243" s="6"/>
+      <c r="B243" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="244" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B244" s="6"/>
+      <c r="B244" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B245" s="6"/>
+      <c r="B245" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B246" s="6"/>
+      <c r="B246" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B247" s="6"/>
+      <c r="B247" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B248" s="6"/>
+      <c r="B248" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B249" s="6"/>
+      <c r="B249" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B250" s="6"/>
+      <c r="B250" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="6"/>
+      <c r="B251" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B252" s="6"/>
+      <c r="B252" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B253" s="6"/>
+      <c r="B253" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B254" s="6"/>
+      <c r="B254" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B255" s="6"/>
+      <c r="B255" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="6"/>
+      <c r="B256" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B257" s="6"/>
+      <c r="B257" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B258" s="6"/>
+      <c r="B258" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B259" s="6"/>
+      <c r="B259" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="6"/>
+      <c r="B260" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="6"/>
+      <c r="B261" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B262" s="6"/>
+      <c r="B262" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B263" s="6"/>
+      <c r="B263" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B264" s="6"/>
+      <c r="B264" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B265" s="6"/>
+      <c r="B265" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B266" s="6"/>
+      <c r="B266" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B267" s="6"/>
+      <c r="B267" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B268" s="6"/>
+      <c r="B268" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B269" s="6"/>
+      <c r="B269" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B270" s="6"/>
+      <c r="B270" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B271" s="6"/>
+      <c r="B271" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B272" s="6"/>
+      <c r="B272" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="273" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B273" s="6"/>
+      <c r="B273" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B274" s="6"/>
+      <c r="B274" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="275" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B275" s="6"/>
+      <c r="B275" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B276" s="6"/>
+      <c r="B276" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B277" s="6"/>
+      <c r="B277" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B278" s="6"/>
+      <c r="B278" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B279" s="6"/>
+      <c r="B279" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B280" s="6"/>
+      <c r="B280" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B281" s="6"/>
+      <c r="B281" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B282" s="6"/>
+      <c r="B282" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B283" s="6"/>
+      <c r="B283" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B284" s="6"/>
+      <c r="B284" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" spans="1:2" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B285" s="6"/>
+      <c r="B285" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B286" s="6"/>
+      <c r="B286" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="287" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B287" s="6"/>
+      <c r="B287" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B288" s="6"/>
+      <c r="B288" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="289" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B289" s="6"/>
+      <c r="B289" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B290" s="6"/>
+      <c r="B290" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B291" s="6"/>
+      <c r="B291" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B292" s="6"/>
+      <c r="B292" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B293" s="6"/>
+      <c r="B293" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:2" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B294" s="6"/>
+      <c r="B294" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B295" s="6"/>
+      <c r="B295" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B296" s="6"/>
+      <c r="B296" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B297" s="6"/>
+      <c r="B297" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B298" s="6"/>
+      <c r="B298" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B299" s="6"/>
+      <c r="B299" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B300" s="6"/>
+      <c r="B300" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B301" s="6"/>
+      <c r="B301" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iFood.xlsx
+++ b/iFood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Área de Trabalho\Insper\Semestre 2\Ciencia de dados\P1\ciencia-dos-dados-p1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/ciencia-dos-dados-p1-main 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45424830-9ABA-4F05-BB0A-988B4E07D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CC6131-D03A-0A4B-AE7A-9CBE4D9731BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1693,7 +1693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1710,9 +1710,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1761,23 +1768,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2117,2424 +2124,4024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="72.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="B76" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="B79" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="B83" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="B84" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="B87" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+      <c r="B88" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="B92" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="B93" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+      <c r="B94" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="B95" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="B96" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+      <c r="B98" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+      <c r="B100" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+      <c r="B103" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+      <c r="B107" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
+      <c r="B112" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+      <c r="B115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+      <c r="B117" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+      <c r="B118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
+      <c r="B120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
+      <c r="B122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
+      <c r="B123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
+      <c r="B124" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
+      <c r="B126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
+      <c r="B127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+      <c r="B129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
+      <c r="B131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
+      <c r="B132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
+      <c r="B133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
+      <c r="B134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+      <c r="B135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
+      <c r="B136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
+      <c r="B137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
+      <c r="B138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
+      <c r="B139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
+      <c r="B140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
+      <c r="B141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
+      <c r="B142" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
+      <c r="B143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
+      <c r="B144" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
+      <c r="B145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
+      <c r="B146" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
+      <c r="B147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
+      <c r="B148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
+      <c r="B149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
+      <c r="B150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
+      <c r="B151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
+      <c r="B152" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
+      <c r="B153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
+      <c r="B154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
+      <c r="B155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
+      <c r="B156" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A157" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
+      <c r="B157" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
+      <c r="B158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
+      <c r="B159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="4" t="s">
+      <c r="B160" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
+      <c r="B161" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
+      <c r="B162" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
+      <c r="B163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
+      <c r="B164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
+      <c r="B165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
+      <c r="B166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A167" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
+      <c r="B167" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
+      <c r="B168" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
+      <c r="B169" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
+      <c r="B170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
+      <c r="B171" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A172" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
+      <c r="B172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A173" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
+      <c r="B173" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
+      <c r="B174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="4" t="s">
+      <c r="B175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A176" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A177" s="4" t="s">
+      <c r="B176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
+      <c r="B177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
+      <c r="B178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A179" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="4" t="s">
+      <c r="B179" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A180" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
+      <c r="B180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
+      <c r="B181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A182" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="4" t="s">
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
+      <c r="B183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="4" t="s">
+      <c r="B184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A185" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="4" t="s">
+      <c r="B185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A186" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="4" t="s">
+      <c r="B186" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A187" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A188" s="4" t="s">
+      <c r="B187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A188" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="4" t="s">
+      <c r="B188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A189" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
+      <c r="B189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
+      <c r="B190" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="4" t="s">
+      <c r="B191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A192" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="4" t="s">
+      <c r="B192" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="4" t="s">
+      <c r="B193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A195" s="4" t="s">
+      <c r="B194" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A195" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="4" t="s">
+      <c r="B195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A197" s="4" t="s">
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A197" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="4" t="s">
+      <c r="B197" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="4" t="s">
+      <c r="B198" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="4" t="s">
+      <c r="B199" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A200" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="4" t="s">
+      <c r="B200" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="4" t="s">
+      <c r="B201" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A202" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="4" t="s">
+      <c r="B202" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A203" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="4" t="s">
+      <c r="B203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A204" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="4" t="s">
+      <c r="B204" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A205" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B205" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="4" t="s">
+      <c r="B205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A206" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A207" s="4" t="s">
+      <c r="B206" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A207" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="4" t="s">
+      <c r="B207" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A208" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="4" t="s">
+      <c r="B208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A209" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="4" t="s">
+      <c r="B209" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A210" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="4" t="s">
+      <c r="B210" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="4" t="s">
+      <c r="B211" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="4" t="s">
+      <c r="B212" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A214" s="4" t="s">
+      <c r="B213" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A214" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="4" t="s">
+      <c r="B214" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A215" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="4" t="s">
+      <c r="B215" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A217" s="4" t="s">
+      <c r="B216" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A217" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
+      <c r="B217" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
+      <c r="B218" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A219" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="4" t="s">
+      <c r="B219" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A221" s="4" t="s">
+      <c r="B220" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A221" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="4" t="s">
+      <c r="B221" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="4" t="s">
+      <c r="B222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A223" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A224" s="4" t="s">
+      <c r="B223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A224" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="4" t="s">
+      <c r="B224" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A226" s="4" t="s">
+      <c r="B225" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A226" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A227" s="4" t="s">
+      <c r="B226" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A227" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="4" t="s">
+      <c r="B227" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="4" t="s">
+      <c r="B228" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A229" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="4" t="s">
+      <c r="B229" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="4" t="s">
+      <c r="B230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="4" t="s">
+      <c r="B231" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A233" s="4" t="s">
+      <c r="B232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="4" t="s">
+      <c r="B233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="4" t="s">
+      <c r="B234" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A235" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A236" s="4" t="s">
+      <c r="B235" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A236" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A237" s="4" t="s">
+      <c r="B236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A237" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A238" s="4" t="s">
+      <c r="B237" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A238" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="4" t="s">
+      <c r="B238" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A240" s="4" t="s">
+      <c r="B239" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A240" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B240" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A241" s="4" t="s">
+      <c r="B240" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A241" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B241" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A242" s="4" t="s">
+      <c r="B241" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A242" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B242" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A243" s="4" t="s">
+      <c r="B242" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A243" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B243" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A244" s="4" t="s">
+      <c r="B243" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A244" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B244" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="4" t="s">
+      <c r="B244" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B245" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="4" t="s">
+      <c r="B245" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A246" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B246" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A247" s="4" t="s">
+      <c r="B246" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A247" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B247" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="4" t="s">
+      <c r="B247" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A248" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B248" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A249" s="4" t="s">
+      <c r="B248" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A249" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B249" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="4" t="s">
+      <c r="B249" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B250" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="4" t="s">
+      <c r="B250" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="4" t="s">
+      <c r="B251" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B252" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="4" t="s">
+      <c r="B252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B253" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="4" t="s">
+      <c r="B253" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B254" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A255" s="4" t="s">
+      <c r="B254" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A255" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B255" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A256" s="4" t="s">
+      <c r="B255" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A256" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="4" t="s">
+      <c r="B256" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B257" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="4" t="s">
+      <c r="B257" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B258" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="4" t="s">
+      <c r="B258" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A259" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B259" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="4" t="s">
+      <c r="B259" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="4" t="s">
+      <c r="B260" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="4" t="s">
+      <c r="B261" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B262" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A263" s="4" t="s">
+      <c r="B262" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A263" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B263" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A264" s="4" t="s">
+      <c r="B263" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A264" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B264" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A265" s="4" t="s">
+      <c r="B264" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A265" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B265" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="4" t="s">
+      <c r="B265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B266" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A267" s="4" t="s">
+      <c r="B266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A267" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B267" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A268" s="4" t="s">
+      <c r="B267" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A268" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B268" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="4" t="s">
+      <c r="B268" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A269" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B269" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A270" s="4" t="s">
+      <c r="B269" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A270" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B270" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="4" t="s">
+      <c r="B270" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B271" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A272" s="4" t="s">
+      <c r="B271" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A272" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B272" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A273" s="4" t="s">
+      <c r="B272" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B273" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A274" s="4" t="s">
+      <c r="B273" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A274" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B274" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="4" t="s">
+      <c r="B274" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B275" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="4" t="s">
+      <c r="B275" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A276" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B276" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A277" s="4" t="s">
+      <c r="B276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A277" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B277" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A278" s="4" t="s">
+      <c r="B277" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A278" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B278" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="4" t="s">
+      <c r="B278" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B279" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A280" s="4" t="s">
+      <c r="B279" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A280" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B280" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="4" t="s">
+      <c r="B280" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A281" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B281" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A282" s="4" t="s">
+      <c r="B281" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A282" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B282" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A283" s="4" t="s">
+      <c r="B282" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A283" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B283" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="4" t="s">
+      <c r="B283" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A284" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B284" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A285" s="4" t="s">
+      <c r="B284" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A285" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B285" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A286" s="4" t="s">
+      <c r="B285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A286" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B286" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A287" s="4" t="s">
+      <c r="B286" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A287" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B287" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A288" s="4" t="s">
+      <c r="B287" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A288" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B288" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="4" t="s">
+      <c r="B288" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A289" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B289" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="4" t="s">
+      <c r="B289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B290" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A291" s="4" t="s">
+      <c r="B290" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A291" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B291" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A292" s="4" t="s">
+      <c r="B291" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A292" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B292" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A293" s="4" t="s">
+      <c r="B292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A293" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B293" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" s="2" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A294" s="4" t="s">
+      <c r="B293" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="A294" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B294" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="4" t="s">
+      <c r="B294" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B295" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="4" t="s">
+      <c r="B295" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A296" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B296" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A297" s="4" t="s">
+      <c r="B296" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A297" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B297" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="4" t="s">
+      <c r="B297" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B298" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A299" s="4" t="s">
+      <c r="B298" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A299" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B299" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="4" t="s">
+      <c r="B299" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B300" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="4" t="s">
+      <c r="B300" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B301" s="6">
-        <v>0</v>
+      <c r="B301" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A302" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A303" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A304" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A305" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A307" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A308" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A309" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A310" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A313" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A314" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A316" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A317" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A318" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A319" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A320" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A321" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A322" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A323" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A325" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A327" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A330" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A331" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A332" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A333" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A334" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A336" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A337" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A338" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A339" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A341" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A342" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A343" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A344" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A345" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A346" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A348" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A349" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A350" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A351" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A352" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A353" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A354" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A355" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A356" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A357" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A359" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A360" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A361" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A362" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A363" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A365" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A366" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A367" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A368" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A369" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A370" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A371" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A372" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A373" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A374" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A375" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A376" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A377" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A378" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A379" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A380" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A381" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A382" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A383" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A384" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A385" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A386" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A387" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A388" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A389" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A390" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A391" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A392" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A393" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A394" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A395" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A396" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A397" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A398" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A399" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A400" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A401" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A402" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A403" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A404" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A405" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A406" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A407" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A408" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A409" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A410" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A411" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A412" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A413" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A414" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A415" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A416" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A417" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A418" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A419" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A420" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A421" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A422" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A423" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A424" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A425" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A426" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A427" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A428" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A429" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A430" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A431" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A432" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A433" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A434" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A435" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A436" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A437" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A438" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A439" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A440" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A441" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A442" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A443" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A444" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A445" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A446" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A447" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A448" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A449" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A450" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A451" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A452" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A453" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A454" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A455" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A456" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A457" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A458" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A459" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A460" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A461" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A462" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A463" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A464" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A465" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A466" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A467" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A468" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A469" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A470" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A471" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A472" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A473" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A474" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A475" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A476" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A477" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A478" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A479" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A480" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A481" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A482" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A483" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A484" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A485" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A486" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A487" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A488" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A489" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A490" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A491" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A492" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A493" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A494" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A495" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+      <c r="A496" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A497" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B497" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A498" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B498" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A499" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B499" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A500" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B500" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A501" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B501" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4549,1009 +6156,1009 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>501</v>
       </c>

--- a/iFood.xlsx
+++ b/iFood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/ciencia-dos-dados-p1-main 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CC6131-D03A-0A4B-AE7A-9CBE4D9731BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857F342C-D75E-B449-913A-0F5AA23EF622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,9 +690,6 @@
 espero que ajude você! 😬</t>
   </si>
   <si>
-    <t>@eliasfr @bruninhossauro @ogatoajado @felipeneto mano eu acho q ele pediu covid no ifood só pode</t>
-  </si>
-  <si>
     <t>não trouxe marmita hoje, ai fui da uma olhada no ifood,  com desconto pra pedido acima de 25 reais, comprei uma quentinha e saiu a 5 reais kkkkkkk</t>
   </si>
   <si>
@@ -1687,6 +1684,9 @@
   </si>
   <si>
     <t>Classificação</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @bruninhossauro @ogatoajado @felipeneto mano eu acho q ele pediu covid no ifood só pode</t>
   </si>
 </sst>
 </file>
@@ -2126,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A461" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2357,7 +2357,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2437,7 +2437,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2533,7 +2533,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2573,7 +2573,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2709,7 +2709,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -2821,7 +2821,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2853,7 +2853,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2973,7 +2973,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -3077,7 +3077,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -3117,7 +3117,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -3173,7 +3173,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -3197,7 +3197,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3309,7 +3309,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -3317,7 +3317,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3525,7 +3525,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -3565,7 +3565,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -3581,7 +3581,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -3661,7 +3661,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -3717,7 +3717,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -3754,7 +3754,7 @@
     </row>
     <row r="203" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>202</v>
+        <v>502</v>
       </c>
       <c r="B203" s="2">
         <v>0</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="204" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2">
         <v>1</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="205" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="206" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2">
         <v>0</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="207" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <v>1</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="208" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2">
         <v>0</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="209" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2">
         <v>2</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="210" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2">
         <v>1</v>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="211" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2">
         <v>1</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="212" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2">
         <v>1</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="213" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2">
         <v>0</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="214" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2">
         <v>0</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="215" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2">
         <v>0</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="216" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2">
         <v>2</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="217" spans="1:2" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2">
         <v>2</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="218" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2">
         <v>1</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="219" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2">
         <v>2</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="220" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="221" spans="1:2" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2">
         <v>0</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="222" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2">
         <v>0</v>
@@ -3914,15 +3914,15 @@
     </row>
     <row r="223" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2">
         <v>1</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="225" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2">
         <v>0</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="226" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2">
         <v>2</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="227" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2">
         <v>2</v>
@@ -3954,15 +3954,15 @@
     </row>
     <row r="228" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2">
         <v>1</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="230" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2">
         <v>0</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="231" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2">
         <v>0</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="232" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2">
         <v>0</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="233" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2">
         <v>0</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="234" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2">
         <v>1</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="235" spans="1:2" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2">
         <v>0</v>
@@ -4018,15 +4018,15 @@
     </row>
     <row r="236" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2">
         <v>2</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="238" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="239" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2">
         <v>2</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="240" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2">
         <v>0</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="241" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2">
         <v>2</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="242" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2">
         <v>2</v>
@@ -4074,7 +4074,7 @@
     </row>
     <row r="243" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2">
         <v>2</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="244" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2">
         <v>0</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="245" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2">
         <v>0</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="246" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2">
         <v>1</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="247" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2">
         <v>2</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="248" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2">
         <v>0</v>
@@ -4122,23 +4122,23 @@
     </row>
     <row r="249" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2">
         <v>1</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="252" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2">
         <v>0</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="253" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <v>0</v>
@@ -4162,15 +4162,15 @@
     </row>
     <row r="254" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2">
         <v>0</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="256" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2">
         <v>0</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="257" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2">
         <v>0</v>
@@ -4194,23 +4194,23 @@
     </row>
     <row r="258" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2">
         <v>2</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="261" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2">
         <v>0</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="262" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2">
         <v>2</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="263" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2">
         <v>2</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="264" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2">
         <v>1</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="265" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2">
         <v>0</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="266" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2">
         <v>0</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="267" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2">
         <v>2</v>
@@ -4274,15 +4274,15 @@
     </row>
     <row r="268" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2">
         <v>2</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="270" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2">
         <v>0</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="271" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2">
         <v>1</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="272" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2">
         <v>2</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="273" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2">
         <v>0</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="274" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2">
         <v>0</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="275" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2">
         <v>2</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="276" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2">
         <v>0</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="277" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2">
         <v>2</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="278" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2">
         <v>1</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="279" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2">
         <v>2</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="280" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2">
         <v>0</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="281" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2">
         <v>2</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="282" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <v>1</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="283" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <v>2</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="284" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <v>0</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="285" spans="1:2" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <v>0</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="286" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <v>0</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="287" spans="1:2" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <v>0</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="288" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <v>1</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="289" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <v>0</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="290" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <v>0</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="291" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <v>0</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="292" spans="1:2" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <v>0</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="293" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <v>1</v>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="294" spans="1:2" s="2" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <v>0</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="295" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <v>0</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="296" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <v>0</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="297" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <v>1</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="298" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <v>1</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="299" spans="1:2" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <v>2</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="300" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <v>0</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="301" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <v>2</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="302" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B302" s="2">
         <v>0</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B303" s="2">
         <v>1</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="304" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B304" s="2">
         <v>2</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="305" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B305" s="2">
         <v>0</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B306" s="2">
         <v>0</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B307" s="2">
         <v>1</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="308" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B308" s="2">
         <v>0</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="309" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A309" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B309" s="2">
         <v>2</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="310" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A310" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B310" s="2">
         <v>0</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="311" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B311" s="2">
         <v>0</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B312" s="2">
         <v>0</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="313" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A313" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B313" s="2">
         <v>1</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="314" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B314" s="2">
         <v>1</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B315" s="2">
         <v>1</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="316" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B316" s="2">
         <v>1</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B317" s="2">
         <v>0</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="318" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B318" s="2">
         <v>2</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="319" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B319" s="2">
         <v>2</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="320" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B320" s="2">
         <v>0</v>
@@ -4698,7 +4698,7 @@
     </row>
     <row r="321" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B321" s="2">
         <v>2</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B322" s="2">
         <v>0</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="323" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B323" s="2">
         <v>0</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="324" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B324" s="2">
         <v>0</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="325" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B325" s="2">
         <v>0</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="326" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B326" s="2">
         <v>0</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="327" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B327" s="2">
         <v>0</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="328" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B328" s="2">
         <v>1</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B329" s="2">
         <v>1</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="330" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B330" s="2">
         <v>1</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="331" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A331" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B331" s="2">
         <v>2</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="332" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B332" s="2">
         <v>1</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="333" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A333" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B333" s="2">
         <v>0</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="334" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A334" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B334" s="2">
         <v>2</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="335" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B335" s="2">
         <v>2</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="336" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B336" s="2">
         <v>0</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B337" s="2">
         <v>0</v>
@@ -4834,7 +4834,7 @@
     </row>
     <row r="338" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A338" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B338" s="2">
         <v>2</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="339" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A339" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B339" s="2">
         <v>2</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B340" s="2">
         <v>2</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="341" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A341" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B341" s="2">
         <v>1</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="342" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A342" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B342" s="2">
         <v>2</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="343" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A343" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B343" s="2">
         <v>2</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="344" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A344" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B344" s="2">
         <v>0</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="345" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B345" s="2">
         <v>1</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="346" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A346" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B346" s="2">
         <v>1</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="347" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B347" s="2">
         <v>2</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="348" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B348" s="2">
         <v>2</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="349" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A349" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B349" s="2">
         <v>2</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="350" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A350" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B350" s="2">
         <v>2</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="351" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A351" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B351" s="2">
         <v>2</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="352" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A352" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B352" s="2">
         <v>0</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="353" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B353" s="2">
         <v>2</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="354" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B354" s="2">
         <v>2</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="355" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B355" s="2">
         <v>2</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="356" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A356" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B356" s="2">
         <v>1</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="357" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A357" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B357" s="2">
         <v>0</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B358" s="2">
         <v>2</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="359" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B359" s="2">
         <v>1</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="360" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B360" s="2">
         <v>0</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="361" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B361" s="2">
         <v>1</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="362" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A362" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B362" s="2">
         <v>2</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="363" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A363" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B363" s="2">
         <v>0</v>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="364" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B364" s="2">
         <v>1</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="365" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B365" s="2">
         <v>0</v>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="366" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B366" s="2">
         <v>1</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="367" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A367" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B367" s="2">
         <v>2</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="368" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A368" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B368" s="2">
         <v>0</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="369" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A369" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B369" s="2">
         <v>1</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="370" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A370" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B370" s="2">
         <v>0</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="371" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A371" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B371" s="2">
         <v>1</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="372" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B372" s="2">
         <v>2</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="373" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B373" s="2">
         <v>0</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="374" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B374" s="2">
         <v>1</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="375" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A375" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B375" s="2">
         <v>0</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="376" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B376" s="2">
         <v>0</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="377" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B377" s="2">
         <v>2</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="378" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B378" s="2">
         <v>1</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="379" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A379" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B379" s="2">
         <v>2</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="380" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A380" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B380" s="2">
         <v>1</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="381" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B381" s="2">
         <v>0</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="382" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A382" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B382" s="2">
         <v>0</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="383" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A383" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B383" s="2">
         <v>1</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="384" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A384" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B384" s="2">
         <v>0</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="385" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A385" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B385" s="2">
         <v>1</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B386" s="2">
         <v>0</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="387" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A387" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B387" s="2">
         <v>0</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="388" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A388" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B388" s="2">
         <v>0</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="389" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B389" s="2">
         <v>1</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="390" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A390" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B390" s="2">
         <v>0</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="391" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B391" s="2">
         <v>0</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="392" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A392" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B392" s="2">
         <v>0</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="393" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A393" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B393" s="2">
         <v>0</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="394" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A394" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B394" s="2">
         <v>0</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="395" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A395" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B395" s="2">
         <v>0</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="396" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B396" s="2">
         <v>1</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="397" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B397" s="2">
         <v>2</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="398" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B398" s="2">
         <v>1</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="399" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A399" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B399" s="2">
         <v>2</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="400" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B400" s="2">
         <v>0</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="401" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B401" s="2">
         <v>2</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="402" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B402" s="2">
         <v>1</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="403" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A403" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B403" s="2">
         <v>0</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B404" s="2">
         <v>1</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="405" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B405" s="2">
         <v>0</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="406" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B406" s="2">
         <v>0</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="407" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B407" s="2">
         <v>2</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="408" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A408" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B408" s="2">
         <v>0</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="409" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B409" s="2">
         <v>0</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="410" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B410" s="2">
         <v>0</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="411" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B411" s="2">
         <v>2</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="412" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A412" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B412" s="2">
         <v>2</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B413" s="2">
         <v>0</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="414" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B414" s="2">
         <v>0</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="415" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A415" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B415" s="2">
         <v>1</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="416" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B416" s="2">
         <v>2</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="417" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A417" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B417" s="2">
         <v>2</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="418" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A418" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B418" s="2">
         <v>0</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="419" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B419" s="2">
         <v>1</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="420" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B420" s="2">
         <v>0</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B421" s="2">
         <v>0</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="422" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A422" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B422" s="2">
         <v>2</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="423" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A423" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B423" s="2">
         <v>2</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="424" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B424" s="2">
         <v>2</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="425" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A425" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B425" s="2">
         <v>1</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="426" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B426" s="2">
         <v>2</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="427" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B427" s="2">
         <v>1</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="428" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A428" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B428" s="2">
         <v>0</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="429" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B429" s="2">
         <v>0</v>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B430" s="2">
         <v>1</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="431" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A431" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B431" s="2">
         <v>1</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="432" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B432" s="2">
         <v>0</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="433" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B433" s="2">
         <v>1</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="434" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A434" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B434" s="2">
         <v>1</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="435" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A435" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B435" s="2">
         <v>0</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="436" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B436" s="2">
         <v>0</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="437" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B437" s="2">
         <v>1</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="438" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A438" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B438" s="2">
         <v>0</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="439" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A439" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B439" s="2">
         <v>0</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="440" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B440" s="2">
         <v>0</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="441" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A441" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B441" s="2">
         <v>2</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="442" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A442" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B442" s="2">
         <v>0</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="443" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B443" s="2">
         <v>0</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="444" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B444" s="2">
         <v>0</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="445" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A445" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B445" s="2">
         <v>0</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="446" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B446" s="2">
         <v>0</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="447" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B447" s="2">
         <v>2</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="448" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A448" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B448" s="2">
         <v>0</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="449" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A449" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B449" s="2">
         <v>1</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B450" s="2">
         <v>0</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="451" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A451" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B451" s="2">
         <v>1</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="452" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B452" s="2">
         <v>0</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="453" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B453" s="2">
         <v>0</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="454" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B454" s="2">
         <v>0</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="455" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A455" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B455" s="2">
         <v>2</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="456" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A456" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B456" s="2">
         <v>0</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="457" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A457" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B457" s="2">
         <v>1</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="458" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B458" s="2">
         <v>0</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="459" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A459" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B459" s="2">
         <v>1</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="460" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B460" s="2">
         <v>0</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="461" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B461" s="2">
         <v>0</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="462" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A462" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B462" s="2">
         <v>1</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="463" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A463" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B463" s="2">
         <v>0</v>
@@ -5842,7 +5842,7 @@
     </row>
     <row r="464" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B464" s="2">
         <v>2</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="465" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A465" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B465" s="2">
         <v>1</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="466" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A466" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B466" s="2">
         <v>1</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="467" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A467" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B467" s="2">
         <v>1</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="468" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B468" s="2">
         <v>0</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="469" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A469" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B469" s="2">
         <v>0</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="470" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A470" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B470" s="2">
         <v>0</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="471" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A471" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B471" s="2">
         <v>2</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="472" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B472" s="2">
         <v>2</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="473" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B473" s="2">
         <v>1</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="474" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A474" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B474" s="2">
         <v>2</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="475" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A475" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B475" s="2">
         <v>0</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="476" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A476" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B476" s="2">
         <v>0</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="477" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A477" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B477" s="2">
         <v>0</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="478" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A478" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B478" s="2">
         <v>1</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="479" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A479" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B479" s="2">
         <v>1</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="480" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B480" s="2">
         <v>0</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="481" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A481" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B481" s="2">
         <v>2</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="482" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A482" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B482" s="2">
         <v>2</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B483" s="2">
         <v>1</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="484" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A484" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B484" s="2">
         <v>1</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="485" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A485" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B485" s="2">
         <v>0</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="486" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B486" s="2">
         <v>0</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="487" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B487" s="2">
         <v>0</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="488" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B488" s="2">
         <v>0</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="489" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A489" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B489" s="2">
         <v>1</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="490" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B490" s="2">
         <v>0</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="491" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A491" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B491" s="2">
         <v>0</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="492" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A492" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B492" s="2">
         <v>2</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="493" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A493" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B493" s="2">
         <v>0</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="494" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B494" s="2">
         <v>2</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="495" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B495" s="2">
         <v>0</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="496" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A496" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B496" s="2">
         <v>2</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="497" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B497" s="2">
         <v>2</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="498" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A498" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B498" s="2">
         <v>2</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="499" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B499" s="2">
         <v>0</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="500" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B500" s="2">
         <v>0</v>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="501" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B501" s="2">
         <v>1</v>
@@ -6154,1013 +6154,1013 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A180" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
